--- a/H0BR40/Released/BOM/H0BR40.xlsx
+++ b/H0BR40/Released/BOM/H0BR40.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anas\Documents\Hexabitz\Hardware\Eagle\design-automation\Modules\H0BR40\Released\BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hexabitz\Hardware\H0BR4x-Hardware\H0BR40\Released\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="92">
   <si>
     <t>Qty</t>
   </si>
@@ -103,18 +103,6 @@
     <t>R3</t>
   </si>
   <si>
-    <t>Thick Film Resistors - SMD 0603</t>
-  </si>
-  <si>
-    <t>Yageo</t>
-  </si>
-  <si>
-    <t>RC0603JR-070RL</t>
-  </si>
-  <si>
-    <t>https://octopart.com/rc0603jr-070rl-yageo-1241539?r=sp&amp;s=X2NteqRjRNWrnx42Y0aliA</t>
-  </si>
-  <si>
     <t>1.00uF</t>
   </si>
   <si>
@@ -124,72 +112,30 @@
     <t>CC0805KKX7R7BB105</t>
   </si>
   <si>
-    <t>https://octopart.com/cc0805kkx7r7bb105-yageo-8376555?r=sp&amp;s=YKl1wwtkROau_X5nniH2ig</t>
-  </si>
-  <si>
     <t>10.0K</t>
   </si>
   <si>
     <t>R2</t>
   </si>
   <si>
-    <t>RC0603JR-0710KL</t>
-  </si>
-  <si>
-    <t>https://octopart.com/search?q=RC0603JR-0710KL&amp;start=0</t>
-  </si>
-  <si>
     <t>100nF</t>
   </si>
   <si>
-    <t>C7</t>
-  </si>
-  <si>
-    <t>CAP CER  10% X7R 0603</t>
-  </si>
-  <si>
-    <t>KEMET</t>
-  </si>
-  <si>
-    <t>C0603C104K8RACTU</t>
-  </si>
-  <si>
-    <t>https://octopart.com/c0603c104k8ractu-kemet-145075?r=sp&amp;s=9bS9ASSwSEqMCE9KBEQZ0g</t>
-  </si>
-  <si>
     <t>10nF</t>
   </si>
   <si>
-    <t>C0603C103K5RACTU</t>
-  </si>
-  <si>
-    <t>https://octopart.com/c0603c103k5ractu-kemet-133094?r=sp&amp;s=R_iPBxLnSmGqhkU2rIMFpg</t>
-  </si>
-  <si>
     <t>270.0R</t>
   </si>
   <si>
     <t>R1</t>
   </si>
   <si>
-    <t>RC0603FR-07270RL</t>
-  </si>
-  <si>
-    <t>https://octopart.com/search?q=RC0603FR-07270RL&amp;start=0</t>
-  </si>
-  <si>
     <t>4.7uF</t>
   </si>
   <si>
     <t>Murata</t>
   </si>
   <si>
-    <t>GRM21BC81E475KA12L</t>
-  </si>
-  <si>
-    <t>https://octopart.com/grm21bc81e475ka12l-murata-10331911?r=sp&amp;s=RY3qZSD8T6mG6TC9CHI5qQ</t>
-  </si>
-  <si>
     <t>FB-TDK_MMZ1608Y300B</t>
   </si>
   <si>
@@ -262,27 +208,9 @@
     <t>U3</t>
   </si>
   <si>
-    <t>CAP CER 1UF 16V X7R 0805</t>
-  </si>
-  <si>
-    <t>CAP CER 4.7UF 25V X6S 0805</t>
-  </si>
-  <si>
     <t>TERM BLOCK HDR 2POS VERT 5.08MM</t>
   </si>
   <si>
-    <t>C3, C5, C6, C8, C9</t>
-  </si>
-  <si>
-    <t>C4, C7</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>C10, C11, C12, C13</t>
-  </si>
-  <si>
     <t xml:space="preserve">AVX </t>
   </si>
   <si>
@@ -344,6 +272,78 @@
   </si>
   <si>
     <t>Capacitors MLCC - SMD/SMT 100volts 0.22uF X7R 10%</t>
+  </si>
+  <si>
+    <t>C1, C6, C7, C8, C9, C10, C11, C12, C13</t>
+  </si>
+  <si>
+    <t>Cap Ceramic 0.1uF 16V X7R 10% SMD 0603 125C Paper T/R</t>
+  </si>
+  <si>
+    <t>C3, C4</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>AVX</t>
+  </si>
+  <si>
+    <t>Cap Tant Solid 1uF 16V R CASE 20% (2.05 X 1.3 X 1.2mm) SMD 2012-12 20 Ohm 125°C T/R</t>
+  </si>
+  <si>
+    <t>http://octopart.com/tajr105m016rnj-avx-1188552</t>
+  </si>
+  <si>
+    <t>Panasonic</t>
+  </si>
+  <si>
+    <t>CAP TANT 4.7UF 10V 20% 0805</t>
+  </si>
+  <si>
+    <t>10TPU4R7MSI</t>
+  </si>
+  <si>
+    <t>https://octopart.com/10tpu4r7msi-panasonic-29487748</t>
+  </si>
+  <si>
+    <t>https://octopart.com/0603yc103kat4a-avx+interconnect+%2F+elco-2550362</t>
+  </si>
+  <si>
+    <t>0603YC103KAT4A</t>
+  </si>
+  <si>
+    <t>CAP CER 10nF 16V 10% X7R 0603</t>
+  </si>
+  <si>
+    <t>ERJ-3GEYJ271V</t>
+  </si>
+  <si>
+    <t>Thick Film Resistors - SMD 0603 270ohms 5% Tol</t>
+  </si>
+  <si>
+    <t>CRCW060310K0JNEB</t>
+  </si>
+  <si>
+    <t>Thick Film Resistors - SMD 1/10watt 10Kohms 5%</t>
+  </si>
+  <si>
+    <t>https://octopart.com/erj-3geyj271v-panasonic-55560546</t>
+  </si>
+  <si>
+    <t>https://octopart.com/crcw06030000z0eahp-vishay-44320230</t>
+  </si>
+  <si>
+    <t>CRCW06030000Z0EAHP</t>
+  </si>
+  <si>
+    <t>RES SMD 0.0 OHM JUMPER 1/4W 0603</t>
+  </si>
+  <si>
+    <t>https://octopart.com/crcw060310k0jneb-vishay-46603269</t>
+  </si>
+  <si>
+    <t>Res Thick Film 0603 2.2K Ohm 1% 1/10W ±100ppm/°C Molded SMD SMD Paper T/R</t>
   </si>
 </sst>
 </file>
@@ -354,7 +354,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -368,7 +368,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -735,33 +735,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.25" customWidth="1"/>
-    <col min="2" max="2" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.375" customWidth="1"/>
-    <col min="4" max="4" width="60.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="90.625" customWidth="1"/>
-    <col min="8" max="8" width="6.25" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="60.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="90.5703125" customWidth="1"/>
+    <col min="8" max="8" width="6.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>1</v>
@@ -779,430 +779,389 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="D8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="F8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1">
+        <v>691311500102</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="1">
+        <v>691311500102</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>2</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="C14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="D15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="C16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="E17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G17" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>1</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>1</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>1</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>1</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>1</v>
-      </c>
-      <c r="B11" s="1">
-        <v>691311500102</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E11" s="1">
-        <v>691311500102</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>1</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>1</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>1</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>2</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>1</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>1</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>1</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>1</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G6" r:id="rId1"/>
-    <hyperlink ref="G2" r:id="rId2"/>
-    <hyperlink ref="G8" r:id="rId3"/>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G6" r:id="rId2"/>
+    <hyperlink ref="G13" r:id="rId3"/>
     <hyperlink ref="G15" r:id="rId4"/>
-    <hyperlink ref="G17" r:id="rId5"/>
-    <hyperlink ref="G18" r:id="rId6"/>
+    <hyperlink ref="G16" r:id="rId5"/>
+    <hyperlink ref="G5" r:id="rId6"/>
+    <hyperlink ref="G3" r:id="rId7"/>
+    <hyperlink ref="G4" r:id="rId8"/>
+    <hyperlink ref="G10" r:id="rId9"/>
+    <hyperlink ref="G11" r:id="rId10"/>
+    <hyperlink ref="G12" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>